--- a/results/На проверку/Неман-Белица-проверочный-мой.xlsx
+++ b/results/На проверку/Неман-Белица-проверочный-мой.xlsx
@@ -614,7 +614,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -627,6 +627,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -950,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,6 +1000,7 @@
       <c r="M2" s="6"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1026,7 +1030,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3">
@@ -1058,7 +1062,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>2</v>
       </c>
       <c r="B6" s="3">
@@ -1090,7 +1094,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="3">
         <v>3</v>
       </c>
       <c r="B7" s="3">
@@ -1122,7 +1126,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="3">
         <v>4</v>
       </c>
       <c r="B8" s="3">
@@ -1154,7 +1158,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="3">
         <v>5</v>
       </c>
       <c r="B9" s="3">
@@ -1186,7 +1190,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="3">
         <v>6</v>
       </c>
       <c r="B10" s="3">
@@ -1218,7 +1222,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="3">
         <v>7</v>
       </c>
       <c r="B11" s="3">
@@ -1250,7 +1254,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="3">
         <v>8</v>
       </c>
       <c r="B12" s="3">
@@ -1282,7 +1286,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="3">
         <v>9</v>
       </c>
       <c r="B13" s="3">
@@ -1314,7 +1318,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="3">
         <v>10</v>
       </c>
       <c r="B14" s="3">
@@ -1346,7 +1350,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="3">
         <v>11</v>
       </c>
       <c r="B15" s="3">
@@ -1378,7 +1382,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="3">
         <v>12</v>
       </c>
       <c r="B16" s="3">
@@ -1410,7 +1414,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="3">
         <v>13</v>
       </c>
       <c r="B17" s="3">
@@ -1442,7 +1446,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="3">
         <v>14</v>
       </c>
       <c r="B18" s="3">
@@ -1474,7 +1478,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="3">
         <v>15</v>
       </c>
       <c r="B19" s="3">
@@ -1506,7 +1510,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="3">
         <v>16</v>
       </c>
       <c r="B20" s="3">
@@ -1538,7 +1542,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="3">
         <v>17</v>
       </c>
       <c r="B21" s="3">
@@ -1570,7 +1574,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="3">
         <v>18</v>
       </c>
       <c r="B22" s="3">
@@ -1602,7 +1606,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="3">
         <v>19</v>
       </c>
       <c r="B23" s="3">
@@ -1634,7 +1638,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="3">
         <v>20</v>
       </c>
       <c r="B24" s="3">
@@ -1666,7 +1670,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="3">
         <v>21</v>
       </c>
       <c r="B25" s="3">
@@ -1698,7 +1702,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="3">
         <v>22</v>
       </c>
       <c r="B26" s="3">
@@ -1730,7 +1734,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="3">
         <v>23</v>
       </c>
       <c r="B27" s="3">
@@ -1762,7 +1766,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="3">
         <v>24</v>
       </c>
       <c r="B28" s="3">
@@ -1794,7 +1798,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="3">
         <v>25</v>
       </c>
       <c r="B29" s="3">
@@ -1826,7 +1830,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="3">
         <v>26</v>
       </c>
       <c r="B30" s="3">
@@ -1858,7 +1862,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="3">
         <v>27</v>
       </c>
       <c r="B31" s="3">
@@ -1890,7 +1894,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="3">
         <v>28</v>
       </c>
       <c r="B32" s="3">
@@ -1922,7 +1926,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="3">
         <v>29</v>
       </c>
       <c r="B33" s="3">
@@ -1954,7 +1958,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="3">
         <v>30</v>
       </c>
       <c r="B34" s="3">
@@ -1986,7 +1990,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="3">
         <v>31</v>
       </c>
       <c r="B35" s="3">
@@ -2018,7 +2022,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="3">
         <v>32</v>
       </c>
       <c r="B36" s="3">
@@ -2050,7 +2054,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="3">
         <v>33</v>
       </c>
       <c r="B37" s="3">
@@ -2082,7 +2086,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="3">
         <v>34</v>
       </c>
       <c r="B38" s="3">
@@ -2114,7 +2118,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="3">
         <v>35</v>
       </c>
       <c r="B39" s="3">
@@ -2146,7 +2150,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="3">
         <v>36</v>
       </c>
       <c r="B40" s="3">
@@ -2178,7 +2182,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="3">
         <v>37</v>
       </c>
       <c r="B41" s="3">
